--- a/src/main/resources/API4KP-Registry.xlsx
+++ b/src/main/resources/API4KP-Registry.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Languages" sheetId="1" state="visible" r:id="rId2"/>
@@ -375,7 +375,7 @@
     <t xml:space="preserve">elm</t>
   </si>
   <si>
-    <t xml:space="preserve">Clinical Quality Language – Expression Language Metamodel 1.2</t>
+    <t xml:space="preserve">Clinical Quality Language, Expression Language Metamodel 1.2</t>
   </si>
   <si>
     <t xml:space="preserve">http://hl7.org/ELM/1.2</t>
@@ -1500,11 +1500,12 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1522,128 +1523,35 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Ubuntu Light"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Ubuntu Light"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1651,23 +1559,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1691,34 +1584,17 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1734,100 +1610,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000EE"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -1838,19 +1637,20 @@
   </sheetPr>
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="55.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.96"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="5" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="73.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.95"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="58.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="73.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="52.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.92"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -1920,7 +1720,8 @@
       <c r="I2" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="4" t="b">
+      <c r="K2" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1952,7 +1753,8 @@
       <c r="I3" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="4" t="b">
+      <c r="K3" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1987,7 +1789,8 @@
       <c r="J4" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="4" t="b">
+      <c r="K4" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L4" s="5" t="s">
@@ -2025,7 +1828,8 @@
       <c r="J5" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="4" t="b">
+      <c r="K5" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L5" s="5" t="s">
@@ -2063,7 +1867,8 @@
       <c r="J6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="4" t="b">
+      <c r="K6" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2095,7 +1900,8 @@
       <c r="I7" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="K7" s="4" t="b">
+      <c r="K7" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2124,7 +1930,8 @@
       <c r="H8" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="4" t="b">
+      <c r="K8" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L8" s="0" t="s">
@@ -2159,7 +1966,8 @@
       <c r="I9" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="K9" s="4" t="b">
+      <c r="K9" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2191,7 +1999,8 @@
       <c r="I10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="4" t="b">
+      <c r="K10" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2223,7 +2032,8 @@
       <c r="I11" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="K11" s="4" t="b">
+      <c r="K11" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2255,7 +2065,8 @@
       <c r="I12" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="K12" s="4" t="b">
+      <c r="K12" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2290,7 +2101,8 @@
       <c r="J13" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="K13" s="4" t="b">
+      <c r="K13" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2319,7 +2131,8 @@
       <c r="H14" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="4" t="b">
+      <c r="K14" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L14" s="0" t="s">
@@ -2351,7 +2164,8 @@
       <c r="H15" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="K15" s="4" t="b">
+      <c r="K15" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L15" s="5" t="s">
@@ -2389,7 +2203,8 @@
       <c r="J16" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="K16" s="4" t="b">
+      <c r="K16" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2424,7 +2239,8 @@
       <c r="J17" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="K17" s="4" t="b">
+      <c r="K17" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L17" s="0" t="s">
@@ -2462,7 +2278,8 @@
       <c r="J18" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="K18" s="4" t="b">
+      <c r="K18" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L18" s="5" t="s">
@@ -2500,7 +2317,8 @@
       <c r="J19" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="K19" s="4" t="b">
+      <c r="K19" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2535,7 +2353,8 @@
       <c r="J20" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="K20" s="4" t="b">
+      <c r="K20" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2567,7 +2386,8 @@
       <c r="I21" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="K21" s="4" t="b">
+      <c r="K21" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2599,7 +2419,8 @@
       <c r="I22" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="K22" s="4" t="b">
+      <c r="K22" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2634,7 +2455,8 @@
       <c r="J23" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="K23" s="4" t="b">
+      <c r="K23" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2669,7 +2491,8 @@
       <c r="J24" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="K24" s="4" t="b">
+      <c r="K24" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2704,7 +2527,8 @@
       <c r="J25" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="K25" s="4" t="b">
+      <c r="K25" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2739,7 +2563,8 @@
       <c r="J26" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="K26" s="4" t="b">
+      <c r="K26" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2774,7 +2599,8 @@
       <c r="J27" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="K27" s="4" t="b">
+      <c r="K27" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2806,7 +2632,8 @@
       <c r="I28" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="K28" s="4" t="b">
+      <c r="K28" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2841,7 +2668,8 @@
       <c r="J29" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="K29" s="4" t="b">
+      <c r="K29" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2873,8 +2701,8 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="30.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="61.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="30.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="61.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="41.34"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
   </cols>
@@ -3186,7 +3014,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -3201,16 +3029,16 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="37.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="40.12"/>
@@ -4060,7 +3888,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -4827,7 +4655,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -4992,7 +4820,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -5139,7 +4967,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/src/main/resources/API4KP-Registry.xlsx
+++ b/src/main/resources/API4KP-Registry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\API4KB\api4kbs\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AF7BA8-CA1E-4292-B9BF-9C13179CF835}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C74FA8-64EF-48C8-BC24-6165A2A49430}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28170" windowHeight="14378" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28170" windowHeight="14378" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Languages" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="537">
   <si>
     <t>Language</t>
   </si>
@@ -1626,6 +1626,27 @@
   </si>
   <si>
     <t>http://www.omg.org/spec/DOL/DOL-terms/</t>
+  </si>
+  <si>
+    <t>CQLEssentials</t>
+  </si>
+  <si>
+    <t>http://kmdp.mayo.edu/CQL/1.3/essentials</t>
+  </si>
+  <si>
+    <t>kmdp-prof</t>
+  </si>
+  <si>
+    <t>CQL Essentials</t>
+  </si>
+  <si>
+    <t>cql-exx</t>
+  </si>
+  <si>
+    <t>Essential elements of CQL, scoped to simple expressions, used to evalute context variables</t>
+  </si>
+  <si>
+    <t>http://cql.hl7.org</t>
   </si>
 </sst>
 </file>
@@ -3161,10 +3182,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3496,6 +3517,35 @@
       </c>
       <c r="J11" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>530</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="C12" t="s">
+        <v>532</v>
+      </c>
+      <c r="E12" t="s">
+        <v>533</v>
+      </c>
+      <c r="F12" t="s">
+        <v>533</v>
+      </c>
+      <c r="G12" t="s">
+        <v>534</v>
+      </c>
+      <c r="H12" t="s">
+        <v>535</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="J12" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -5388,7 +5438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
